--- a/2023 MDP 소모품 신청서_인공 1 반 2조.xlsx
+++ b/2023 MDP 소모품 신청서_인공 1 반 2조.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\MDP 관련\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{694CED97-4302-47EF-9E7F-0DA83D552EFB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C606647-2EDD-4F69-995E-99369BECEE6E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="390" windowWidth="18000" windowHeight="10245" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -984,52 +984,6 @@
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="8" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="8" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1042,6 +996,9 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1071,6 +1028,49 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="8" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="8" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -1420,7 +1420,7 @@
   </sheetPr>
   <dimension ref="A1:Q72"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
@@ -1439,16 +1439,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="24.75" customHeight="1">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="94" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
+      <c r="B1" s="95"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="95"/>
+      <c r="F1" s="95"/>
+      <c r="G1" s="95"/>
+      <c r="H1" s="95"/>
     </row>
     <row r="2" spans="1:9" ht="14.25" customHeight="1">
       <c r="A2" s="5"/>
@@ -1461,76 +1461,76 @@
       <c r="H2" s="1"/>
     </row>
     <row r="3" spans="1:9" ht="24" customHeight="1">
-      <c r="A3" s="79" t="s">
+      <c r="A3" s="96" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="80"/>
-      <c r="C3" s="81" t="s">
+      <c r="B3" s="97"/>
+      <c r="C3" s="98" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="82"/>
-      <c r="E3" s="82"/>
-      <c r="F3" s="83"/>
-      <c r="G3" s="84" t="s">
+      <c r="D3" s="99"/>
+      <c r="E3" s="99"/>
+      <c r="F3" s="100"/>
+      <c r="G3" s="101" t="s">
         <v>23</v>
       </c>
-      <c r="H3" s="85"/>
+      <c r="H3" s="102"/>
     </row>
     <row r="4" spans="1:9" ht="24" customHeight="1">
-      <c r="A4" s="79" t="s">
+      <c r="A4" s="96" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="80"/>
-      <c r="C4" s="79" t="s">
+      <c r="B4" s="97"/>
+      <c r="C4" s="96" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="86"/>
-      <c r="E4" s="79" t="s">
+      <c r="D4" s="103"/>
+      <c r="E4" s="96" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="87"/>
-      <c r="G4" s="88"/>
-      <c r="H4" s="90"/>
+      <c r="F4" s="104"/>
+      <c r="G4" s="105"/>
+      <c r="H4" s="107"/>
     </row>
     <row r="5" spans="1:9" ht="31.5" customHeight="1">
-      <c r="A5" s="92" t="s">
+      <c r="A5" s="83" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="80"/>
-      <c r="C5" s="97" t="s">
+      <c r="B5" s="97"/>
+      <c r="C5" s="81" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="98"/>
-      <c r="E5" s="92" t="s">
+      <c r="D5" s="82"/>
+      <c r="E5" s="83" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="99"/>
-      <c r="G5" s="89"/>
-      <c r="H5" s="91"/>
+      <c r="F5" s="84"/>
+      <c r="G5" s="106"/>
+      <c r="H5" s="108"/>
     </row>
     <row r="6" spans="1:9" ht="23.25" customHeight="1">
-      <c r="A6" s="100" t="s">
+      <c r="A6" s="85" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="100"/>
-      <c r="C6" s="100"/>
-      <c r="D6" s="100"/>
-      <c r="E6" s="100"/>
-      <c r="F6" s="100"/>
-      <c r="G6" s="100"/>
-      <c r="H6" s="100"/>
+      <c r="B6" s="85"/>
+      <c r="C6" s="85"/>
+      <c r="D6" s="85"/>
+      <c r="E6" s="85"/>
+      <c r="F6" s="85"/>
+      <c r="G6" s="85"/>
+      <c r="H6" s="85"/>
     </row>
     <row r="7" spans="1:9" ht="19.5" customHeight="1">
-      <c r="A7" s="100" t="s">
+      <c r="A7" s="85" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="100"/>
-      <c r="C7" s="100"/>
-      <c r="D7" s="100"/>
-      <c r="E7" s="100"/>
-      <c r="F7" s="100"/>
-      <c r="G7" s="100"/>
-      <c r="H7" s="100"/>
+      <c r="B7" s="85"/>
+      <c r="C7" s="85"/>
+      <c r="D7" s="85"/>
+      <c r="E7" s="85"/>
+      <c r="F7" s="85"/>
+      <c r="G7" s="85"/>
+      <c r="H7" s="85"/>
     </row>
     <row r="8" spans="1:9" ht="22.5" customHeight="1">
       <c r="A8" s="10" t="s">
@@ -2323,10 +2323,10 @@
       <c r="H58" s="25"/>
     </row>
     <row r="59" spans="1:17" s="2" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A59" s="101" t="s">
+      <c r="A59" s="86" t="s">
         <v>16</v>
       </c>
-      <c r="B59" s="102"/>
+      <c r="B59" s="87"/>
       <c r="C59" s="14"/>
       <c r="D59" s="14"/>
       <c r="E59" s="15"/>
@@ -2347,36 +2347,36 @@
       <c r="Q59" s="18"/>
     </row>
     <row r="60" spans="1:17" ht="16.5" hidden="1" customHeight="1">
-      <c r="A60" s="103" t="s">
+      <c r="A60" s="88" t="s">
         <v>17</v>
       </c>
-      <c r="B60" s="104"/>
-      <c r="C60" s="104"/>
-      <c r="D60" s="104"/>
-      <c r="E60" s="104"/>
-      <c r="F60" s="104"/>
-      <c r="G60" s="104"/>
-      <c r="H60" s="105"/>
+      <c r="B60" s="89"/>
+      <c r="C60" s="89"/>
+      <c r="D60" s="89"/>
+      <c r="E60" s="89"/>
+      <c r="F60" s="89"/>
+      <c r="G60" s="89"/>
+      <c r="H60" s="90"/>
     </row>
     <row r="61" spans="1:17" ht="42.75" hidden="1" customHeight="1">
-      <c r="A61" s="106"/>
-      <c r="B61" s="107"/>
-      <c r="C61" s="107"/>
-      <c r="D61" s="107"/>
-      <c r="E61" s="107"/>
-      <c r="F61" s="107"/>
-      <c r="G61" s="107"/>
-      <c r="H61" s="108"/>
+      <c r="A61" s="91"/>
+      <c r="B61" s="92"/>
+      <c r="C61" s="92"/>
+      <c r="D61" s="92"/>
+      <c r="E61" s="92"/>
+      <c r="F61" s="92"/>
+      <c r="G61" s="92"/>
+      <c r="H61" s="93"/>
     </row>
     <row r="62" spans="1:17" ht="15.75" hidden="1" customHeight="1">
-      <c r="A62" s="93" t="s">
+      <c r="A62" s="77" t="s">
         <v>18</v>
       </c>
-      <c r="B62" s="94"/>
-      <c r="C62" s="94"/>
-      <c r="D62" s="94"/>
-      <c r="E62" s="94"/>
-      <c r="F62" s="95"/>
+      <c r="B62" s="78"/>
+      <c r="C62" s="78"/>
+      <c r="D62" s="78"/>
+      <c r="E62" s="78"/>
+      <c r="F62" s="79"/>
       <c r="G62" s="50" t="s">
         <v>13</v>
       </c>
@@ -2385,12 +2385,12 @@
       </c>
     </row>
     <row r="63" spans="1:17" ht="69.75" hidden="1" customHeight="1">
-      <c r="A63" s="96"/>
-      <c r="B63" s="94"/>
-      <c r="C63" s="94"/>
-      <c r="D63" s="94"/>
-      <c r="E63" s="94"/>
-      <c r="F63" s="95"/>
+      <c r="A63" s="80"/>
+      <c r="B63" s="78"/>
+      <c r="C63" s="78"/>
+      <c r="D63" s="78"/>
+      <c r="E63" s="78"/>
+      <c r="F63" s="79"/>
       <c r="G63" s="50"/>
       <c r="H63" s="6"/>
     </row>
@@ -2414,13 +2414,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A62:F63"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="A6:H6"/>
-    <mergeCell ref="A7:H7"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="A60:H61"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="C3:F3"/>
@@ -2431,6 +2424,13 @@
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A62:F63"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="A6:H6"/>
+    <mergeCell ref="A7:H7"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="A60:H61"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>

--- a/2023 MDP 소모품 신청서_인공 1 반 2조.xlsx
+++ b/2023 MDP 소모품 신청서_인공 1 반 2조.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\MDP 관련\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C606647-2EDD-4F69-995E-99369BECEE6E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3FA4A83C-0A98-4BC3-937F-5264638D0F27}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="390" windowWidth="18000" windowHeight="10245" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -984,6 +984,52 @@
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="8" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="8" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -996,9 +1042,6 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1028,49 +1071,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="8" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="8" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -1421,7 +1421,7 @@
   <dimension ref="A1:Q72"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.5"/>
@@ -1439,16 +1439,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="24.75" customHeight="1">
-      <c r="A1" s="94" t="s">
+      <c r="A1" s="77" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="95"/>
-      <c r="C1" s="95"/>
-      <c r="D1" s="95"/>
-      <c r="E1" s="95"/>
-      <c r="F1" s="95"/>
-      <c r="G1" s="95"/>
-      <c r="H1" s="95"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
     </row>
     <row r="2" spans="1:9" ht="14.25" customHeight="1">
       <c r="A2" s="5"/>
@@ -1461,76 +1461,76 @@
       <c r="H2" s="1"/>
     </row>
     <row r="3" spans="1:9" ht="24" customHeight="1">
-      <c r="A3" s="96" t="s">
+      <c r="A3" s="79" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="97"/>
-      <c r="C3" s="98" t="s">
+      <c r="B3" s="80"/>
+      <c r="C3" s="81" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="99"/>
-      <c r="E3" s="99"/>
-      <c r="F3" s="100"/>
-      <c r="G3" s="101" t="s">
+      <c r="D3" s="82"/>
+      <c r="E3" s="82"/>
+      <c r="F3" s="83"/>
+      <c r="G3" s="84" t="s">
         <v>23</v>
       </c>
-      <c r="H3" s="102"/>
+      <c r="H3" s="85"/>
     </row>
     <row r="4" spans="1:9" ht="24" customHeight="1">
-      <c r="A4" s="96" t="s">
+      <c r="A4" s="79" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="97"/>
-      <c r="C4" s="96" t="s">
+      <c r="B4" s="80"/>
+      <c r="C4" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="103"/>
-      <c r="E4" s="96" t="s">
+      <c r="D4" s="86"/>
+      <c r="E4" s="79" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="104"/>
-      <c r="G4" s="105"/>
-      <c r="H4" s="107"/>
+      <c r="F4" s="87"/>
+      <c r="G4" s="88"/>
+      <c r="H4" s="90"/>
     </row>
     <row r="5" spans="1:9" ht="31.5" customHeight="1">
-      <c r="A5" s="83" t="s">
+      <c r="A5" s="92" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="97"/>
-      <c r="C5" s="81" t="s">
+      <c r="B5" s="80"/>
+      <c r="C5" s="97" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="82"/>
-      <c r="E5" s="83" t="s">
+      <c r="D5" s="98"/>
+      <c r="E5" s="92" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="84"/>
-      <c r="G5" s="106"/>
-      <c r="H5" s="108"/>
+      <c r="F5" s="99"/>
+      <c r="G5" s="89"/>
+      <c r="H5" s="91"/>
     </row>
     <row r="6" spans="1:9" ht="23.25" customHeight="1">
-      <c r="A6" s="85" t="s">
+      <c r="A6" s="100" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="85"/>
-      <c r="C6" s="85"/>
-      <c r="D6" s="85"/>
-      <c r="E6" s="85"/>
-      <c r="F6" s="85"/>
-      <c r="G6" s="85"/>
-      <c r="H6" s="85"/>
+      <c r="B6" s="100"/>
+      <c r="C6" s="100"/>
+      <c r="D6" s="100"/>
+      <c r="E6" s="100"/>
+      <c r="F6" s="100"/>
+      <c r="G6" s="100"/>
+      <c r="H6" s="100"/>
     </row>
     <row r="7" spans="1:9" ht="19.5" customHeight="1">
-      <c r="A7" s="85" t="s">
+      <c r="A7" s="100" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="85"/>
-      <c r="C7" s="85"/>
-      <c r="D7" s="85"/>
-      <c r="E7" s="85"/>
-      <c r="F7" s="85"/>
-      <c r="G7" s="85"/>
-      <c r="H7" s="85"/>
+      <c r="B7" s="100"/>
+      <c r="C7" s="100"/>
+      <c r="D7" s="100"/>
+      <c r="E7" s="100"/>
+      <c r="F7" s="100"/>
+      <c r="G7" s="100"/>
+      <c r="H7" s="100"/>
     </row>
     <row r="8" spans="1:9" ht="22.5" customHeight="1">
       <c r="A8" s="10" t="s">
@@ -1702,7 +1702,9 @@
       <c r="D14" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="E14" s="52"/>
+      <c r="E14" s="52">
+        <v>2</v>
+      </c>
       <c r="F14" s="53"/>
       <c r="G14" s="49"/>
       <c r="H14" s="69"/>
@@ -2323,10 +2325,10 @@
       <c r="H58" s="25"/>
     </row>
     <row r="59" spans="1:17" s="2" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A59" s="86" t="s">
+      <c r="A59" s="101" t="s">
         <v>16</v>
       </c>
-      <c r="B59" s="87"/>
+      <c r="B59" s="102"/>
       <c r="C59" s="14"/>
       <c r="D59" s="14"/>
       <c r="E59" s="15"/>
@@ -2347,36 +2349,36 @@
       <c r="Q59" s="18"/>
     </row>
     <row r="60" spans="1:17" ht="16.5" hidden="1" customHeight="1">
-      <c r="A60" s="88" t="s">
+      <c r="A60" s="103" t="s">
         <v>17</v>
       </c>
-      <c r="B60" s="89"/>
-      <c r="C60" s="89"/>
-      <c r="D60" s="89"/>
-      <c r="E60" s="89"/>
-      <c r="F60" s="89"/>
-      <c r="G60" s="89"/>
-      <c r="H60" s="90"/>
+      <c r="B60" s="104"/>
+      <c r="C60" s="104"/>
+      <c r="D60" s="104"/>
+      <c r="E60" s="104"/>
+      <c r="F60" s="104"/>
+      <c r="G60" s="104"/>
+      <c r="H60" s="105"/>
     </row>
     <row r="61" spans="1:17" ht="42.75" hidden="1" customHeight="1">
-      <c r="A61" s="91"/>
-      <c r="B61" s="92"/>
-      <c r="C61" s="92"/>
-      <c r="D61" s="92"/>
-      <c r="E61" s="92"/>
-      <c r="F61" s="92"/>
-      <c r="G61" s="92"/>
-      <c r="H61" s="93"/>
+      <c r="A61" s="106"/>
+      <c r="B61" s="107"/>
+      <c r="C61" s="107"/>
+      <c r="D61" s="107"/>
+      <c r="E61" s="107"/>
+      <c r="F61" s="107"/>
+      <c r="G61" s="107"/>
+      <c r="H61" s="108"/>
     </row>
     <row r="62" spans="1:17" ht="15.75" hidden="1" customHeight="1">
-      <c r="A62" s="77" t="s">
+      <c r="A62" s="93" t="s">
         <v>18</v>
       </c>
-      <c r="B62" s="78"/>
-      <c r="C62" s="78"/>
-      <c r="D62" s="78"/>
-      <c r="E62" s="78"/>
-      <c r="F62" s="79"/>
+      <c r="B62" s="94"/>
+      <c r="C62" s="94"/>
+      <c r="D62" s="94"/>
+      <c r="E62" s="94"/>
+      <c r="F62" s="95"/>
       <c r="G62" s="50" t="s">
         <v>13</v>
       </c>
@@ -2385,12 +2387,12 @@
       </c>
     </row>
     <row r="63" spans="1:17" ht="69.75" hidden="1" customHeight="1">
-      <c r="A63" s="80"/>
-      <c r="B63" s="78"/>
-      <c r="C63" s="78"/>
-      <c r="D63" s="78"/>
-      <c r="E63" s="78"/>
-      <c r="F63" s="79"/>
+      <c r="A63" s="96"/>
+      <c r="B63" s="94"/>
+      <c r="C63" s="94"/>
+      <c r="D63" s="94"/>
+      <c r="E63" s="94"/>
+      <c r="F63" s="95"/>
       <c r="G63" s="50"/>
       <c r="H63" s="6"/>
     </row>
@@ -2414,6 +2416,13 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A62:F63"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="A6:H6"/>
+    <mergeCell ref="A7:H7"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="A60:H61"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="C3:F3"/>
@@ -2424,13 +2433,6 @@
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A62:F63"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="A6:H6"/>
-    <mergeCell ref="A7:H7"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="A60:H61"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
